--- a/Design/Типовой шаблон.xlsx
+++ b/Design/Типовой шаблон.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>дни</t>
   </si>
@@ -41,9 +41,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>Бюрократия</t>
-  </si>
-  <si>
     <t>на период с &lt;дата&gt; по &lt;дата&gt;</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Методист УО</t>
+  </si>
+  <si>
+    <t>Технические данные учебного отдела</t>
   </si>
 </sst>
 </file>
@@ -369,14 +369,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -385,49 +382,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -436,6 +433,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A24" sqref="A24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,280 +737,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15">
-        <v>7</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7">
-        <v>6</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>

--- a/Design/Типовой шаблон.xlsx
+++ b/Design/Типовой шаблон.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>дни</t>
   </si>
@@ -41,9 +41,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>на период с &lt;дата&gt; по &lt;дата&gt;</t>
-  </si>
-  <si>
     <t>Понедельник</t>
   </si>
   <si>
@@ -58,12 +55,15 @@
   <si>
     <t>Технические данные учебного отдела</t>
   </si>
+  <si>
+    <t>на период с DD.MM.YYг. по DD.MM.YYг.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +73,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -234,15 +257,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -369,76 +383,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:G25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,298 +772,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28">
+        <v>7</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="9">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="7">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
+  <mergeCells count="11">
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A1:G1"/>
@@ -1037,6 +1068,9 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
